--- a/sup_df_main.xlsx
+++ b/sup_df_main.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>FS</t>
   </si>
@@ -37,42 +37,45 @@
     <t>Fenrir</t>
   </si>
   <si>
+    <t>Kitrak</t>
+  </si>
+  <si>
+    <t>Peksu</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>Fng</t>
+  </si>
+  <si>
+    <t>ixmike88</t>
+  </si>
+  <si>
+    <t>ArsZeeqq</t>
+  </si>
+  <si>
+    <t>ninjaboogie</t>
+  </si>
+  <si>
+    <t>Lelis</t>
+  </si>
+  <si>
+    <t>xNova</t>
+  </si>
+  <si>
+    <t>VANSKOR</t>
+  </si>
+  <si>
     <t>343</t>
   </si>
   <si>
-    <t>Kitrak</t>
-  </si>
-  <si>
-    <t>Peksu</t>
-  </si>
-  <si>
-    <t>Fng</t>
-  </si>
-  <si>
-    <t>ninjaboogie</t>
-  </si>
-  <si>
-    <t>ixmike88</t>
-  </si>
-  <si>
-    <t>xNova</t>
-  </si>
-  <si>
-    <t>ArsZeeqq</t>
-  </si>
-  <si>
-    <t>Lelis</t>
-  </si>
-  <si>
-    <t>VANSKOR</t>
+    <t>March</t>
   </si>
   <si>
     <t>JAbz</t>
   </si>
   <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>y`</t>
   </si>
   <si>
@@ -82,12 +85,12 @@
     <t>SVG</t>
   </si>
   <si>
+    <t>Peterpandam</t>
+  </si>
+  <si>
     <t>Fly</t>
   </si>
   <si>
-    <t>Peterpandam</t>
-  </si>
-  <si>
     <t>SoNNeikO</t>
   </si>
   <si>
@@ -112,13 +115,16 @@
     <t>pieliedie</t>
   </si>
   <si>
+    <t>KuroKy</t>
+  </si>
+  <si>
+    <t>Accel丶Koala</t>
+  </si>
+  <si>
     <t>Dark</t>
   </si>
   <si>
-    <t>Accel丶Koala</t>
-  </si>
-  <si>
-    <t>KuroKy</t>
+    <t>Puppey</t>
   </si>
   <si>
     <t>Prada</t>
@@ -127,9 +133,6 @@
     <t>Solo</t>
   </si>
   <si>
-    <t>Puppey</t>
-  </si>
-  <si>
     <t>N0tail</t>
   </si>
   <si>
@@ -142,76 +145,85 @@
     <t>XinQ</t>
   </si>
   <si>
+    <t>Mr. Kingão</t>
+  </si>
+  <si>
     <t>- ah fu -</t>
   </si>
   <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Xepher</t>
+  </si>
+  <si>
+    <t>kingr-</t>
+  </si>
+  <si>
+    <t>Saksa</t>
+  </si>
+  <si>
+    <t>JerAx</t>
+  </si>
+  <si>
+    <t>Tims</t>
+  </si>
+  <si>
     <t>misery</t>
   </si>
   <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>Xepher</t>
-  </si>
-  <si>
-    <t>JerAx</t>
-  </si>
-  <si>
-    <t>Tims</t>
-  </si>
-  <si>
-    <t>Saksa</t>
-  </si>
-  <si>
-    <t>Mr. Kingão</t>
-  </si>
-  <si>
     <t>LaNm</t>
   </si>
   <si>
+    <t>Thiolicor</t>
+  </si>
+  <si>
+    <t>Fade</t>
+  </si>
+  <si>
+    <t>RodjER</t>
+  </si>
+  <si>
+    <t>Handsken</t>
+  </si>
+  <si>
     <t>YapzOr</t>
   </si>
   <si>
-    <t>Handsken</t>
-  </si>
-  <si>
-    <t>RodjER</t>
-  </si>
-  <si>
-    <t>Fade</t>
-  </si>
-  <si>
     <t>FLee</t>
   </si>
   <si>
     <t>Jhocam</t>
   </si>
   <si>
+    <t>Febby♥金佳暎</t>
+  </si>
+  <si>
+    <t>天命</t>
+  </si>
+  <si>
     <t>fy</t>
   </si>
   <si>
-    <t>Febby♥金佳暎</t>
-  </si>
-  <si>
-    <t>天命</t>
-  </si>
-  <si>
     <t>Velheor</t>
   </si>
   <si>
     <t>MSS-</t>
   </si>
   <si>
+    <t>Chu</t>
+  </si>
+  <si>
     <t>kaka</t>
   </si>
   <si>
-    <t>Chu</t>
+    <t>Gh</t>
   </si>
   <si>
     <t>BoBoKa</t>
   </si>
   <si>
-    <t>kingr-</t>
+    <t>tmt</t>
   </si>
   <si>
     <t>Cr1t-</t>
@@ -235,7 +247,7 @@
     <t>Taiga</t>
   </si>
   <si>
-    <t>Gh</t>
+    <t>Sayuw</t>
   </si>
   <si>
     <t>Newsham</t>
@@ -614,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,16 +702,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>451.7634879535868</v>
+        <v>360.1054110800004</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>26.57432282079922</v>
+        <v>25.72181507714289</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -707,16 +719,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>360.1054110800004</v>
+        <v>230.7020949608892</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>25.72181507714289</v>
+        <v>25.63356610676547</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -724,16 +736,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>230.7020949608892</v>
+        <v>178.0922371698355</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>25.63356610676547</v>
+        <v>25.44174816711935</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -758,16 +770,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>580.7753004641856</v>
+        <v>425.3381536067365</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>25.25110002018198</v>
+        <v>25.01989138863156</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -775,16 +787,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>276.3865166775107</v>
+        <v>49.85369639090909</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>25.12604697068279</v>
+        <v>24.92684819545455</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -792,16 +804,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>898.7685095686081</v>
+        <v>793.826804959091</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>24.96579193246134</v>
+        <v>24.80708765497159</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -809,16 +821,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>49.85369639090909</v>
+        <v>396.6029740680838</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>24.92684819545455</v>
+        <v>24.78768587925524</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -826,16 +838,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>396.6029740680838</v>
+        <v>1361.291639842482</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>24.78768587925524</v>
+        <v>24.75075708804514</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -860,16 +872,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1076.580859946311</v>
+        <v>658.3056778439019</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>24.46774681696161</v>
+        <v>24.38169177199637</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -894,16 +906,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>1299.8959052587</v>
+        <v>1185.108002005509</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>23.63447100470363</v>
+        <v>23.70216004011019</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -911,16 +923,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>873.7343424383716</v>
+        <v>1299.8959052587</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>22.9930090115361</v>
+        <v>23.63447100470363</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -928,16 +940,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>614.9991510548313</v>
+        <v>873.7343424383716</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>22.77774633536412</v>
+        <v>22.9930090115361</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -945,16 +957,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1168.240089937157</v>
+        <v>614.9991510548313</v>
       </c>
       <c r="C20">
         <v>33</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>22.46615557571455</v>
+        <v>22.77774633536412</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -962,16 +974,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>1369.159598565673</v>
+        <v>1745.835152272422</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E21">
-        <v>22.44523932074874</v>
+        <v>22.67318379574574</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -979,16 +991,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>645.7441409320584</v>
+        <v>1505.219590373203</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E22">
-        <v>22.26703934248477</v>
+        <v>22.46596403542094</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -996,16 +1008,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>307.712720287251</v>
+        <v>645.7441409320584</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>21.97948002051793</v>
+        <v>22.26703934248477</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1013,16 +1025,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>524.4459830583985</v>
+        <v>307.712720287251</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>21.8519159607666</v>
+        <v>21.97948002051793</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1030,16 +1042,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1255.605324275533</v>
+        <v>524.4459830583985</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>21.64836765992299</v>
+        <v>21.8519159607666</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1047,16 +1059,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>127.9423496742081</v>
+        <v>1493.973425273093</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>21.32372494570136</v>
+        <v>21.34247750390132</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1064,16 +1076,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>569.4716628229562</v>
+        <v>127.9423496742081</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>21.09154306751689</v>
+        <v>21.32372494570136</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1081,16 +1093,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>164.3698857689625</v>
+        <v>569.4716628229562</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E28">
-        <v>20.54623572112031</v>
+        <v>21.09154306751689</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1098,16 +1110,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>265.8576055803856</v>
+        <v>164.3698857689625</v>
       </c>
       <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
         <v>8</v>
       </c>
-      <c r="D29">
-        <v>13</v>
-      </c>
       <c r="E29">
-        <v>20.45058504464505</v>
+        <v>20.54623572112031</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1115,16 +1127,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>558.89933874385</v>
+        <v>265.8576055803856</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E30">
-        <v>19.27239099116724</v>
+        <v>20.45058504464505</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1132,16 +1144,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>248.9691992459408</v>
+        <v>867.4727062371012</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>19.15147686507237</v>
+        <v>19.27717124971336</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1149,16 +1161,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>329.4846460203157</v>
+        <v>248.9691992459408</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>18.30470255668421</v>
+        <v>19.15147686507237</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1166,16 +1178,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>145.0865007243144</v>
+        <v>719.7981487459524</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E33">
-        <v>18.1358125905393</v>
+        <v>18.45636278835775</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1183,16 +1195,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>1139.184360614662</v>
+        <v>1238.944616469699</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E34">
-        <v>18.08229143832797</v>
+        <v>18.21977377161323</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1200,16 +1212,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>926.3085053689373</v>
+        <v>145.0865007243144</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>17.81362510324879</v>
+        <v>18.1358125905393</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1217,16 +1229,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>314.543106261572</v>
+        <v>1321.981033588335</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E36">
-        <v>16.55490032955642</v>
+        <v>17.86460856200453</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1234,16 +1246,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>118.1882318608594</v>
+        <v>496.2865591622012</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>14.77352898260743</v>
+        <v>15.50895497381879</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1251,16 +1263,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>287.2987859011521</v>
+        <v>118.1882318608594</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>13.68089456672153</v>
+        <v>14.77352898260743</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1268,16 +1280,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>256.7324248337129</v>
+        <v>287.2987859011521</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E39">
-        <v>13.51223288598489</v>
+        <v>13.68089456672153</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1285,16 +1297,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>427.5064104745428</v>
+        <v>256.7324248337129</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <v>12.95473971134978</v>
+        <v>13.51223288598489</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1302,16 +1314,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>334.8458346961885</v>
+        <v>453.8261117406448</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E41">
-        <v>12.8786859498534</v>
+        <v>13.34782681590132</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1319,16 +1331,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>398.1793217954931</v>
+        <v>427.5064104745428</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>12.84449425146752</v>
+        <v>12.95473971134978</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1336,16 +1348,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>308.1784931601825</v>
+        <v>398.1793217954931</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E43">
-        <v>12.84077054834094</v>
+        <v>12.84449425146752</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1353,16 +1365,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>237.5147567573138</v>
+        <v>308.1784931601825</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>12.50077667143757</v>
+        <v>12.84077054834094</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1370,16 +1382,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>274.7443410014783</v>
+        <v>231.0140261752654</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>11.94540613049906</v>
+        <v>12.15863295659292</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1387,16 +1399,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>715.3377985526848</v>
+        <v>932.3962579440782</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E46">
-        <v>11.72684915660139</v>
+        <v>12.10904231096205</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1404,16 +1416,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>297.1732972084818</v>
+        <v>385.4818329845102</v>
       </c>
       <c r="C47">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E47">
-        <v>11.42974220032622</v>
+        <v>12.04630728076594</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1421,16 +1433,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>180.4745715177881</v>
+        <v>274.7443410014783</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>11.27966071986176</v>
+        <v>11.94540613049906</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1438,16 +1450,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>562.5377759091841</v>
+        <v>399.0881406020908</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D49">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E49">
-        <v>10.8180341520997</v>
+        <v>11.73788648829679</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1455,16 +1467,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>116.9064415280192</v>
+        <v>180.4745715177881</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>10.62785832072902</v>
+        <v>11.27966071986176</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1472,16 +1484,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>688.174233416516</v>
+        <v>76.88643536520718</v>
       </c>
       <c r="C51">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E51">
-        <v>10.58729589871563</v>
+        <v>10.98377648074388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1489,16 +1501,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>601.0195298871498</v>
+        <v>765.3781841443022</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D52">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E52">
-        <v>10.36240568770948</v>
+        <v>10.93397405920432</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1506,16 +1518,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>163.6071547567548</v>
+        <v>822.6012590095116</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E53">
-        <v>10.22544717229718</v>
+        <v>10.82370077644094</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1523,16 +1535,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>274.8237976756383</v>
+        <v>116.9064415280192</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>10.17865917317179</v>
+        <v>10.62785832072902</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1540,16 +1552,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>364.5635849069746</v>
+        <v>721.5743404810986</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D55">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E55">
-        <v>10.12676624741596</v>
+        <v>10.61138736001616</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1557,16 +1569,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>131.3687168419551</v>
+        <v>163.6071547567548</v>
       </c>
       <c r="C56">
         <v>8</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>10.10528591091963</v>
+        <v>10.22544717229718</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1574,16 +1586,16 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>351.6591014764234</v>
+        <v>274.8237976756383</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>9.768308374345093</v>
+        <v>10.17865917317179</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1591,16 +1603,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>105.2446659670911</v>
+        <v>131.3687168419551</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>9.567696906099194</v>
+        <v>10.10528591091963</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1608,16 +1620,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>196.8055500943069</v>
+        <v>351.6591014764234</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E59">
-        <v>9.371692861633662</v>
+        <v>9.768308374345093</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1625,16 +1637,16 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>268.4862682153505</v>
+        <v>535.6270505834054</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D60">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E60">
-        <v>9.258147179839675</v>
+        <v>9.738673646971009</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1642,16 +1654,16 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>262.2865311037791</v>
+        <v>105.2446659670911</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>9.044363141509622</v>
+        <v>9.567696906099194</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1659,16 +1671,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>130.8743082988404</v>
+        <v>196.8055500943069</v>
       </c>
       <c r="C62">
         <v>25</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E62">
-        <v>8.724953886589359</v>
+        <v>9.371692861633662</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1676,16 +1688,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>119.6563098389018</v>
+        <v>262.2865311037791</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E63">
-        <v>8.546879274207269</v>
+        <v>9.044363141509622</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1693,16 +1705,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>430.6151783260448</v>
+        <v>351.8176590969193</v>
       </c>
       <c r="C64">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D64">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E64">
-        <v>8.281061121654707</v>
+        <v>9.020965617869726</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1710,16 +1722,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>74.44875953167407</v>
+        <v>397.9306865217484</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E65">
-        <v>8.27208439240823</v>
+        <v>8.842904144927742</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1727,16 +1739,16 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>72.99053583136875</v>
+        <v>130.8743082988404</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>8.110059536818749</v>
+        <v>8.724953886589359</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1744,16 +1756,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>64.46396912017147</v>
+        <v>50.63611097260407</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>8.057996140021434</v>
+        <v>8.439351828767345</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1761,16 +1773,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>161.0427769517971</v>
+        <v>556.180811217135</v>
       </c>
       <c r="C68">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E68">
-        <v>8.052138847589855</v>
+        <v>8.30120613756918</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1778,16 +1790,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>46.31093521584027</v>
+        <v>74.44875953167407</v>
       </c>
       <c r="C69">
         <v>8</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>7.718489202640046</v>
+        <v>8.27208439240823</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1795,16 +1807,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>161.8447619830742</v>
+        <v>72.99053583136875</v>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>7.706893427765436</v>
+        <v>8.110059536818749</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1812,16 +1824,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>136.6380722045528</v>
+        <v>64.46396912017147</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>7.591004011364045</v>
+        <v>8.057996140021434</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1829,16 +1841,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>77.31820302017888</v>
+        <v>161.0427769517971</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>7.02892754728899</v>
+        <v>8.052138847589855</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1846,16 +1858,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>108.3921140230731</v>
+        <v>46.31093521584027</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>6.774507126442069</v>
+        <v>7.718489202640046</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1863,16 +1875,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>92.04433264457776</v>
+        <v>161.8447619830742</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E74">
-        <v>6.574595188898412</v>
+        <v>7.706893427765436</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1880,16 +1892,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>39.09546236389787</v>
+        <v>37.71129790454546</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>6.515910393982978</v>
+        <v>7.542259580909092</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1897,16 +1909,16 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>241.3106755094259</v>
+        <v>77.31820302017888</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>6.187453218190408</v>
+        <v>7.02892754728899</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1914,16 +1926,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>61.46903875600795</v>
+        <v>108.3921140230731</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>6.146903875600795</v>
+        <v>6.774507126442069</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1931,15 +1943,83 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>23.06915492023917</v>
+        <v>92.04433264457776</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>6.574595188898412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>39.09546236389787</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79">
         <v>6</v>
       </c>
-      <c r="E78">
+      <c r="E79">
+        <v>6.515910393982978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>241.3106755094259</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>39</v>
+      </c>
+      <c r="E80">
+        <v>6.187453218190408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>61.46903875600795</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>6.146903875600795</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>23.06915492023917</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82">
         <v>3.844859153373196</v>
       </c>
     </row>
